--- a/EditProject/Design/Stage/G_Boss.xlsx
+++ b/EditProject/Design/Stage/G_Boss.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="11920" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="8835" yWindow="11925" windowWidth="25605" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -156,8 +156,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -527,18 +527,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="22.1640625" customWidth="1"/>
+    <col min="1" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -643,9 +643,6 @@
       <c r="F6">
         <v>10000</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
       <c r="H6">
         <v>32</v>
       </c>
@@ -671,9 +668,6 @@
       </c>
       <c r="F7">
         <v>11000</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
       </c>
       <c r="H7">
         <v>32</v>
@@ -694,14 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/EditProject/Design/Stage/G_Boss.xlsx
+++ b/EditProject/Design/Stage/G_Boss.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="11925" windowWidth="25605" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="14640" yWindow="13420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -89,75 +89,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>操纵虫子程度的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用歌声使人迷惑程度的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜雀の怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>莉格露·奈特巴格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操纵虫子程度的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗中蠢动的光虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>闇に蠢く光の虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>米斯蒂娅·萝蕾拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用歌声使人迷惑程度的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜雀の怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -527,18 +527,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="22.125" customWidth="1"/>
+    <col min="1" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -546,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -561,7 +561,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -569,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -613,10 +613,10 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -629,13 +629,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -655,13 +655,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -688,14 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
